--- a/Payments/Contractor Payment Cerfificates/KCE/Sub Contractor Payment/D039 Berkeley/Berkeley Progress Assessment - March 2023.xlsx
+++ b/Payments/Contractor Payment Cerfificates/KCE/Sub Contractor Payment/D039 Berkeley/Berkeley Progress Assessment - March 2023.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D06DE6-F608-4A1E-8EBC-F92BCC415419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC4F0F2-7253-416C-8546-82121D4A0009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOQ" sheetId="5" r:id="rId1"/>
@@ -1571,57 +1571,6 @@
     <xf numFmtId="43" fontId="7" fillId="9" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1643,6 +1592,57 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1676,7 +1676,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="P66"/>
@@ -1697,7 +1697,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="K6"/>
@@ -1712,7 +1712,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="K04"/>
@@ -2052,63 +2052,66 @@
   </sheetPr>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J58" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.453125" style="46" customWidth="1"/>
-    <col min="10" max="12" width="11.453125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="14.81640625" style="2"/>
-    <col min="16" max="16" width="64.90625" style="98" customWidth="1"/>
-    <col min="17" max="16384" width="14.81640625" style="2"/>
+    <col min="1" max="1" width="7.21875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.44140625" style="46" customWidth="1"/>
+    <col min="10" max="12" width="11.44140625" style="2" customWidth="1"/>
+    <col min="13" max="15" width="14.77734375" style="2"/>
+    <col min="16" max="16" width="64.88671875" style="81" customWidth="1"/>
+    <col min="17" max="16384" width="14.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
+    <row r="1" spans="1:16" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="105"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="85" t="s">
+      <c r="K2" s="101"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="86"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="99"/>
-    </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="82"/>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>3</v>
       </c>
@@ -2150,7 +2153,7 @@
       <c r="O3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="100" t="s">
+      <c r="P3" s="83" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2170,9 +2173,9 @@
       <c r="M4" s="67"/>
       <c r="N4" s="68"/>
       <c r="O4" s="69"/>
-      <c r="P4" s="101"/>
-    </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P4" s="84"/>
+    </row>
+    <row r="5" spans="1:16" s="7" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="96" t="s">
         <v>14</v>
@@ -2190,9 +2193,9 @@
       <c r="M5" s="70"/>
       <c r="N5" s="71"/>
       <c r="O5" s="72"/>
-      <c r="P5" s="102"/>
-    </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P5" s="85"/>
+    </row>
+    <row r="6" spans="1:16" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
@@ -2212,9 +2215,9 @@
       <c r="M6" s="70"/>
       <c r="N6" s="71"/>
       <c r="O6" s="72"/>
-      <c r="P6" s="102"/>
-    </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P6" s="85"/>
+    </row>
+    <row r="7" spans="1:16" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -2260,11 +2263,11 @@
         <f t="shared" ref="O7:O45" si="2">L7*F7</f>
         <v>3000</v>
       </c>
-      <c r="P7" s="103" t="s">
+      <c r="P7" s="86" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
@@ -2309,11 +2312,11 @@
         <f t="shared" si="2"/>
         <v>2362.5</v>
       </c>
-      <c r="P8" s="102" t="s">
+      <c r="P8" s="85" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>22</v>
       </c>
@@ -2355,9 +2358,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P9" s="102"/>
-    </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P9" s="85"/>
+    </row>
+    <row r="10" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
@@ -2399,9 +2402,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P10" s="102"/>
-    </row>
-    <row r="11" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P10" s="85"/>
+    </row>
+    <row r="11" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>26</v>
       </c>
@@ -2443,9 +2446,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P11" s="102"/>
-    </row>
-    <row r="12" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P11" s="85"/>
+    </row>
+    <row r="12" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>28</v>
       </c>
@@ -2487,9 +2490,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P12" s="102"/>
-    </row>
-    <row r="13" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P12" s="85"/>
+    </row>
+    <row r="13" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>30</v>
       </c>
@@ -2531,16 +2534,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P13" s="102"/>
-    </row>
-    <row r="14" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P13" s="85"/>
+    </row>
+    <row r="14" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="82"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="21">
         <v>1</v>
       </c>
@@ -2575,9 +2578,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" s="102"/>
-    </row>
-    <row r="15" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P14" s="85"/>
+    </row>
+    <row r="15" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>34</v>
       </c>
@@ -2615,9 +2618,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P15" s="102"/>
-    </row>
-    <row r="16" spans="1:16" s="7" customFormat="1" ht="12.5" x14ac:dyDescent="0.35">
+      <c r="P15" s="85"/>
+    </row>
+    <row r="16" spans="1:16" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>37</v>
       </c>
@@ -2662,11 +2665,11 @@
         <f t="shared" si="2"/>
         <v>3240</v>
       </c>
-      <c r="P16" s="103" t="s">
+      <c r="P16" s="86" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>39</v>
       </c>
@@ -2708,9 +2711,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="102"/>
-    </row>
-    <row r="18" spans="1:16" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="P17" s="85"/>
+    </row>
+    <row r="18" spans="1:16" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>41</v>
       </c>
@@ -2757,11 +2760,11 @@
         <f>L18*F18</f>
         <v>23400.000000000004</v>
       </c>
-      <c r="P18" s="103" t="s">
+      <c r="P18" s="86" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>43</v>
       </c>
@@ -2806,11 +2809,11 @@
         <f t="shared" si="2"/>
         <v>5400</v>
       </c>
-      <c r="P19" s="102" t="s">
+      <c r="P19" s="85" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>45</v>
       </c>
@@ -2852,9 +2855,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P20" s="102"/>
-    </row>
-    <row r="21" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P20" s="85"/>
+    </row>
+    <row r="21" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>47</v>
       </c>
@@ -2896,16 +2899,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" s="102"/>
-    </row>
-    <row r="22" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P21" s="85"/>
+    </row>
+    <row r="22" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="21">
         <v>1</v>
       </c>
@@ -2940,16 +2943,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="102"/>
-    </row>
-    <row r="23" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P22" s="85"/>
+    </row>
+    <row r="23" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="21">
         <v>1</v>
       </c>
@@ -2984,9 +2987,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P23" s="102"/>
-    </row>
-    <row r="24" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P23" s="85"/>
+    </row>
+    <row r="24" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>53</v>
       </c>
@@ -3028,9 +3031,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P24" s="102"/>
-    </row>
-    <row r="25" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P24" s="85"/>
+    </row>
+    <row r="25" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>55</v>
       </c>
@@ -3072,9 +3075,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P25" s="102"/>
-    </row>
-    <row r="26" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P25" s="85"/>
+    </row>
+    <row r="26" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>57</v>
       </c>
@@ -3116,16 +3119,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P26" s="102"/>
-    </row>
-    <row r="27" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P26" s="85"/>
+    </row>
+    <row r="27" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="82"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="21">
         <v>30</v>
       </c>
@@ -3160,16 +3163,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P27" s="102"/>
-    </row>
-    <row r="28" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P27" s="85"/>
+    </row>
+    <row r="28" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="82"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="21">
         <v>30</v>
       </c>
@@ -3204,16 +3207,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" s="102"/>
-    </row>
-    <row r="29" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P28" s="85"/>
+    </row>
+    <row r="29" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="82"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="21">
         <v>3</v>
       </c>
@@ -3248,16 +3251,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P29" s="102"/>
-    </row>
-    <row r="30" spans="1:16" s="7" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P29" s="85"/>
+    </row>
+    <row r="30" spans="1:16" s="7" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="82"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="21">
         <v>1</v>
       </c>
@@ -3292,16 +3295,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P30" s="102"/>
-    </row>
-    <row r="31" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P30" s="85"/>
+    </row>
+    <row r="31" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="21">
         <v>1</v>
       </c>
@@ -3336,9 +3339,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P31" s="102"/>
-    </row>
-    <row r="32" spans="1:16" s="7" customFormat="1" ht="12.5" x14ac:dyDescent="0.35">
+      <c r="P31" s="85"/>
+    </row>
+    <row r="32" spans="1:16" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="29"/>
       <c r="C32" s="30"/>
@@ -3368,9 +3371,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P32" s="102"/>
-    </row>
-    <row r="33" spans="1:16" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P32" s="85"/>
+    </row>
+    <row r="33" spans="1:16" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>71</v>
       </c>
@@ -3404,9 +3407,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P33" s="102"/>
-    </row>
-    <row r="34" spans="1:16" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P33" s="85"/>
+    </row>
+    <row r="34" spans="1:16" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>73</v>
       </c>
@@ -3448,9 +3451,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P34" s="102"/>
-    </row>
-    <row r="35" spans="1:16" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P34" s="85"/>
+    </row>
+    <row r="35" spans="1:16" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>74</v>
       </c>
@@ -3492,9 +3495,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P35" s="102"/>
-    </row>
-    <row r="36" spans="1:16" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P35" s="85"/>
+    </row>
+    <row r="36" spans="1:16" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>75</v>
       </c>
@@ -3540,11 +3543,11 @@
         <f t="shared" si="2"/>
         <v>1020</v>
       </c>
-      <c r="P36" s="103" t="s">
+      <c r="P36" s="86" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>77</v>
       </c>
@@ -3586,16 +3589,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P37" s="102"/>
-    </row>
-    <row r="38" spans="1:16" s="7" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P37" s="85"/>
+    </row>
+    <row r="38" spans="1:16" s="7" customFormat="1" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="82"/>
+      <c r="C38" s="93"/>
       <c r="D38" s="21">
         <v>1</v>
       </c>
@@ -3630,16 +3633,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P38" s="102"/>
-    </row>
-    <row r="39" spans="1:16" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P38" s="85"/>
+    </row>
+    <row r="39" spans="1:16" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="82"/>
+      <c r="C39" s="93"/>
       <c r="D39" s="21">
         <v>1</v>
       </c>
@@ -3679,18 +3682,18 @@
         <f t="shared" si="2"/>
         <v>4050.0000000000005</v>
       </c>
-      <c r="P39" s="103" t="s">
+      <c r="P39" s="86" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="7" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="82"/>
+      <c r="C40" s="93"/>
       <c r="D40" s="21">
         <v>3</v>
       </c>
@@ -3725,16 +3728,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P40" s="102"/>
-    </row>
-    <row r="41" spans="1:16" s="7" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P40" s="85"/>
+    </row>
+    <row r="41" spans="1:16" s="7" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="82"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="21">
         <v>1</v>
       </c>
@@ -3769,9 +3772,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P41" s="102"/>
-    </row>
-    <row r="42" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P41" s="85"/>
+    </row>
+    <row r="42" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>85</v>
       </c>
@@ -3813,9 +3816,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P42" s="102"/>
-    </row>
-    <row r="43" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P42" s="85"/>
+    </row>
+    <row r="43" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>87</v>
       </c>
@@ -3857,9 +3860,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P43" s="102"/>
-    </row>
-    <row r="44" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P43" s="85"/>
+    </row>
+    <row r="44" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>89</v>
       </c>
@@ -3901,9 +3904,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P44" s="102"/>
-    </row>
-    <row r="45" spans="1:16" s="7" customFormat="1" ht="12.5" x14ac:dyDescent="0.35">
+      <c r="P44" s="85"/>
+    </row>
+    <row r="45" spans="1:16" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="29"/>
       <c r="C45" s="30"/>
@@ -3933,16 +3936,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P45" s="102"/>
-    </row>
-    <row r="46" spans="1:16" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P45" s="85"/>
+    </row>
+    <row r="46" spans="1:16" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="82"/>
+      <c r="C46" s="93"/>
       <c r="D46" s="21">
         <v>1</v>
       </c>
@@ -3975,12 +3978,12 @@
         <f>L46*H46</f>
         <v>0</v>
       </c>
-      <c r="P46" s="102"/>
-    </row>
-    <row r="47" spans="1:16" s="7" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P46" s="85"/>
+    </row>
+    <row r="47" spans="1:16" s="7" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="82"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="93"/>
       <c r="D47" s="21"/>
       <c r="E47" s="22"/>
       <c r="F47" s="31"/>
@@ -3993,14 +3996,14 @@
       <c r="M47" s="70"/>
       <c r="N47" s="71"/>
       <c r="O47" s="72"/>
-      <c r="P47" s="102"/>
-    </row>
-    <row r="48" spans="1:16" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P47" s="85"/>
+    </row>
+    <row r="48" spans="1:16" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="84"/>
+      <c r="C48" s="99"/>
       <c r="D48" s="21"/>
       <c r="E48" s="22"/>
       <c r="F48" s="31"/>
@@ -4013,14 +4016,14 @@
       <c r="M48" s="70"/>
       <c r="N48" s="71"/>
       <c r="O48" s="72"/>
-      <c r="P48" s="102"/>
-    </row>
-    <row r="49" spans="1:16" s="7" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P48" s="85"/>
+    </row>
+    <row r="49" spans="1:16" s="7" customFormat="1" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="82"/>
+      <c r="C49" s="93"/>
       <c r="D49" s="21">
         <v>1</v>
       </c>
@@ -4057,14 +4060,14 @@
         <f>L49*H49*90%</f>
         <v>12060</v>
       </c>
-      <c r="P49" s="102" t="s">
+      <c r="P49" s="85" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="82"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="93"/>
       <c r="D50" s="21"/>
       <c r="E50" s="22"/>
       <c r="F50" s="31"/>
@@ -4077,9 +4080,9 @@
       <c r="M50" s="70"/>
       <c r="N50" s="71"/>
       <c r="O50" s="72"/>
-      <c r="P50" s="102"/>
-    </row>
-    <row r="51" spans="1:16" s="7" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P50" s="85"/>
+    </row>
+    <row r="51" spans="1:16" s="7" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="34"/>
       <c r="B51" s="35"/>
       <c r="C51" s="36"/>
@@ -4095,9 +4098,9 @@
       <c r="M51" s="73"/>
       <c r="N51" s="74"/>
       <c r="O51" s="75"/>
-      <c r="P51" s="104"/>
-    </row>
-    <row r="52" spans="1:16" s="7" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P51" s="87"/>
+    </row>
+    <row r="52" spans="1:16" s="7" customFormat="1" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="41"/>
       <c r="B52" s="42" t="s">
         <v>93</v>
@@ -4136,16 +4139,25 @@
         <f>SUM(O5:O51)</f>
         <v>54532.5</v>
       </c>
-      <c r="P52" s="105"/>
-    </row>
-    <row r="54" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P52" s="88"/>
+    </row>
+    <row r="54" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L54"/>
     </row>
-    <row r="55" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L55"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
@@ -4160,15 +4172,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4178,26 +4181,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d52836b-ce72-4b89-82f9-d65d5dfc828e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8182470c-9c64-4c0e-a68a-a1f556439e59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F52C19EA790EB54A99A699BA62372528" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b92e8d07ddcb96500ad79536e213bba2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8182470c-9c64-4c0e-a68a-a1f556439e59" xmlns:ns3="4d52836b-ce72-4b89-82f9-d65d5dfc828e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="740b569e960f62d2154794bad3f43ad3" ns2:_="" ns3:_="">
     <xsd:import namespace="8182470c-9c64-4c0e-a68a-a1f556439e59"/>
@@ -4434,10 +4417,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d52836b-ce72-4b89-82f9-d65d5dfc828e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8182470c-9c64-4c0e-a68a-a1f556439e59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5D3A58B-249E-4A6F-9BC8-D0CBF4686D96}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74FB81B8-C2DE-4954-ADC5-B07E694C27CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8182470c-9c64-4c0e-a68a-a1f556439e59"/>
+    <ds:schemaRef ds:uri="4d52836b-ce72-4b89-82f9-d65d5dfc828e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4454,20 +4468,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74FB81B8-C2DE-4954-ADC5-B07E694C27CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5D3A58B-249E-4A6F-9BC8-D0CBF4686D96}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8182470c-9c64-4c0e-a68a-a1f556439e59"/>
-    <ds:schemaRef ds:uri="4d52836b-ce72-4b89-82f9-d65d5dfc828e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>